--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514D33F-7665-4E11-9CB5-CD2AC45BB275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B28250-8138-4860-A99B-9B7ACCB609F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="1635" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>edit1</t>
+  </si>
+  <si>
+    <t>edit2</t>
   </si>
 </sst>
 </file>
@@ -345,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -358,6 +361,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,36 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B28250-8138-4860-A99B-9B7ACCB609F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F272453-3644-431A-86CD-F6D4955DCE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1635" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8610" windowWidth="28800" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="10">
   <si>
     <t>edit1</t>
   </si>
   <si>
     <t>edit2</t>
   </si>
+  <si>
+    <t>edit3</t>
+  </si>
+  <si>
+    <t>edit4</t>
+  </si>
+  <si>
+    <t>edit5</t>
+  </si>
+  <si>
+    <t>edit6</t>
+  </si>
+  <si>
+    <t>edit7</t>
+  </si>
+  <si>
+    <t>edit8</t>
+  </si>
+  <si>
+    <t>edit9</t>
+  </si>
+  <si>
+    <t>edit10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +81,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -347,26 +396,633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7D2A1-2752-48D3-A2CC-34ACE2B8568A}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" ref="I1:I5" si="0">B1</f>
+        <v>edit3</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:J5" si="1">C1</f>
+        <v>edit3</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:K5" si="2">D1</f>
+        <v>edit3</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" ref="L1:L5" si="3">E1</f>
+        <v>edit3</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:M5" si="4">F1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>edit4</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>edit4</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="2"/>
+        <v>edit4</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="3"/>
+        <v>edit4</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>edit5</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>edit5</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="2"/>
+        <v>edit5</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="3"/>
+        <v>edit5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>edit6</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>edit6</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>edit6</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v>edit6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>edit7</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>edit7</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>edit7</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>edit7</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F272453-3644-431A-86CD-F6D4955DCE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECA5EF-4E2F-4E69-ABE8-A0029903FBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8610" windowWidth="28800" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="5265" windowWidth="28800" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="10">
   <si>
     <t>edit1</t>
   </si>
@@ -400,7 +400,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I1" sqref="I1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,23 +757,23 @@
         <v>2</v>
       </c>
       <c r="I1" t="str">
-        <f t="shared" ref="I1:I5" si="0">B1</f>
+        <f t="shared" ref="I1:I7" si="0">B1</f>
         <v>edit3</v>
       </c>
       <c r="J1" t="str">
-        <f t="shared" ref="J1:J5" si="1">C1</f>
+        <f t="shared" ref="J1:J7" si="1">C1</f>
         <v>edit3</v>
       </c>
       <c r="K1" t="str">
-        <f t="shared" ref="K1:K5" si="2">D1</f>
+        <f t="shared" ref="K1:K7" si="2">D1</f>
         <v>edit3</v>
       </c>
       <c r="L1" t="str">
-        <f t="shared" ref="L1:L5" si="3">E1</f>
+        <f t="shared" ref="L1:L7" si="3">E1</f>
         <v>edit3</v>
       </c>
       <c r="M1">
-        <f t="shared" ref="M1:M5" si="4">F1</f>
+        <f t="shared" ref="M1:M7" si="4">F1</f>
         <v>0</v>
       </c>
     </row>
@@ -816,35 +816,35 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>edit5</v>
+        <v>edit6</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
-        <v>edit5</v>
+        <v>edit6</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="2"/>
-        <v>edit5</v>
+        <v>edit6</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="3"/>
-        <v>edit5</v>
+        <v>edit6</v>
       </c>
       <c r="M3">
         <f t="shared" si="4"/>
@@ -853,35 +853,35 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>edit6</v>
+        <v>edit7</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
-        <v>edit6</v>
+        <v>edit7</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="2"/>
-        <v>edit6</v>
+        <v>edit7</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="3"/>
-        <v>edit6</v>
+        <v>edit7</v>
       </c>
       <c r="M4">
         <f t="shared" si="4"/>
@@ -890,35 +890,35 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>edit7</v>
+        <v>edit8</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>edit7</v>
+        <v>edit8</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="2"/>
-        <v>edit7</v>
+        <v>edit8</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="3"/>
-        <v>edit7</v>
+        <v>edit8</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
@@ -926,99 +926,77 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>edit10</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>edit10</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>edit10</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>edit10</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECA5EF-4E2F-4E69-ABE8-A0029903FBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E9D70-0548-43CD-83E8-B5C07A2FBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="5265" windowWidth="28800" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="8">
   <si>
     <t>edit1</t>
-  </si>
-  <si>
-    <t>edit2</t>
   </si>
   <si>
     <t>edit3</t>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>edit5</t>
-  </si>
-  <si>
-    <t>edit6</t>
   </si>
   <si>
     <t>edit7</t>
@@ -397,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7D2A1-2752-48D3-A2CC-34ACE2B8568A}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,291 +432,233 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -732,66 +668,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="A3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" t="str">
-        <f t="shared" ref="I1:I7" si="0">B1</f>
+        <f t="shared" ref="I1:I5" si="0">B1</f>
         <v>edit3</v>
       </c>
       <c r="J1" t="str">
-        <f t="shared" ref="J1:J7" si="1">C1</f>
+        <f t="shared" ref="J1:J5" si="1">C1</f>
         <v>edit3</v>
       </c>
       <c r="K1" t="str">
-        <f t="shared" ref="K1:K7" si="2">D1</f>
+        <f t="shared" ref="K1:K5" si="2">D1</f>
         <v>edit3</v>
       </c>
       <c r="L1" t="str">
-        <f t="shared" ref="L1:L7" si="3">E1</f>
+        <f t="shared" ref="L1:L5" si="3">E1</f>
         <v>edit3</v>
       </c>
       <c r="M1">
-        <f t="shared" ref="M1:M7" si="4">F1</f>
+        <f t="shared" ref="M1:M5" si="4">F1</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="0"/>
@@ -832,19 +768,19 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>edit6</v>
+        <v>edit8</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
-        <v>edit6</v>
+        <v>edit8</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="2"/>
-        <v>edit6</v>
+        <v>edit8</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="3"/>
-        <v>edit6</v>
+        <v>edit8</v>
       </c>
       <c r="M3">
         <f t="shared" si="4"/>
@@ -852,36 +788,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
-        <v>edit7</v>
-      </c>
-      <c r="J4" t="str">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>edit7</v>
-      </c>
-      <c r="K4" t="str">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
-        <v>edit7</v>
-      </c>
-      <c r="L4" t="str">
+        <v>4</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="3"/>
-        <v>edit7</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <f t="shared" si="4"/>
@@ -906,95 +842,21 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>edit8</v>
+        <v>edit10</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>edit8</v>
+        <v>edit10</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="2"/>
-        <v>edit8</v>
+        <v>edit10</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="3"/>
-        <v>edit8</v>
+        <v>edit10</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>edit10</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>edit10</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>edit10</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="3"/>
-        <v>edit10</v>
-      </c>
-      <c r="M7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E9D70-0548-43CD-83E8-B5C07A2FBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B45F736-EDDA-4AA0-93A0-0B6BB8B02A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="8">
   <si>
     <t>edit1</t>
   </si>
@@ -391,7 +391,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7D2A1-2752-48D3-A2CC-34ACE2B8568A}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -399,283 +772,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="A3:M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
@@ -693,57 +789,57 @@
         <v>1</v>
       </c>
       <c r="I1" t="str">
-        <f t="shared" ref="I1:I5" si="0">B1</f>
+        <f t="shared" ref="I1:I3" si="0">B1</f>
         <v>edit3</v>
       </c>
       <c r="J1" t="str">
-        <f t="shared" ref="J1:J5" si="1">C1</f>
+        <f t="shared" ref="J1:J3" si="1">C1</f>
         <v>edit3</v>
       </c>
       <c r="K1" t="str">
-        <f t="shared" ref="K1:K5" si="2">D1</f>
+        <f t="shared" ref="K1:K3" si="2">D1</f>
         <v>edit3</v>
       </c>
       <c r="L1" t="str">
-        <f t="shared" ref="L1:L5" si="3">E1</f>
+        <f t="shared" ref="L1:L3" si="3">E1</f>
         <v>edit3</v>
       </c>
       <c r="M1">
-        <f t="shared" ref="M1:M5" si="4">F1</f>
+        <f t="shared" ref="M1:M3" si="4">F1</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="0"/>
-        <v>edit4</v>
+        <v>edit8</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" si="1"/>
-        <v>edit4</v>
+        <v>edit8</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" si="2"/>
-        <v>edit4</v>
+        <v>edit8</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" si="3"/>
-        <v>edit4</v>
+        <v>edit8</v>
       </c>
       <c r="M2">
         <f t="shared" si="4"/>
@@ -751,36 +847,36 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="0"/>
-        <v>edit8</v>
-      </c>
-      <c r="J3" t="str">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <f t="shared" si="1"/>
-        <v>edit8</v>
-      </c>
-      <c r="K3" t="str">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <f t="shared" si="2"/>
-        <v>edit8</v>
-      </c>
-      <c r="L3" t="str">
+        <v>4</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="3"/>
-        <v>edit8</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <f t="shared" si="4"/>
@@ -804,60 +900,134 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I7" si="5">B4</f>
         <v>2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J4:J7" si="6">C4</f>
         <v>3</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K4:K7" si="7">D4</f>
         <v>4</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L4:L7" si="8">E4</f>
         <v>5</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M4:M7" si="9">F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>edit10</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>edit10</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>edit10</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="3"/>
-        <v>edit10</v>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B45F736-EDDA-4AA0-93A0-0B6BB8B02A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2611B5E-B2C0-46AC-8EEA-50F9E16192A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="8">
   <si>
     <t>edit1</t>
   </si>
@@ -764,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,73 +884,73 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I7" si="5">B4</f>
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J7" si="6">C4</f>
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K7" si="7">D4</f>
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L7" si="8">E4</f>
-        <v>5</v>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I5" si="5">B4</f>
+        <v>edit8</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J5" si="6">C4</f>
+        <v>edit8</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K5" si="7">D4</f>
+        <v>edit8</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L5" si="8">E4</f>
+        <v>edit8</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M7" si="9">F4</f>
+        <f t="shared" ref="M4:M5" si="9">F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="I5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J5">
+        <v>edit8</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="K5">
+        <v>edit8</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="L5">
+        <v>edit8</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>edit8</v>
       </c>
       <c r="M5">
         <f t="shared" si="9"/>
@@ -974,23 +974,23 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I6:I9" si="10">B6</f>
         <v>2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J6:J9" si="11">C6</f>
         <v>3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K6:K9" si="12">D6</f>
         <v>4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L6:L9" si="13">E6</f>
         <v>5</v>
       </c>
       <c r="M6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M6:M9" si="14">F6</f>
         <v>0</v>
       </c>
     </row>
@@ -999,35 +999,109 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2611B5E-B2C0-46AC-8EEA-50F9E16192A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154D745-6526-4DCE-B14D-AE2A72073A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,9 +998,6 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -1012,7 +1009,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="11"/>
@@ -1032,13 +1029,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
@@ -1053,7 +1044,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="12"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154D745-6526-4DCE-B14D-AE2A72073A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F122030D-7BC0-414A-87CD-CA34E709E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,6 +998,9 @@
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -1009,7 +1012,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <f t="shared" si="11"/>
@@ -1029,8 +1032,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8">
         <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1044,7 +1053,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <f t="shared" si="12"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F122030D-7BC0-414A-87CD-CA34E709E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EB2A1-82EC-40C6-80E0-FA4647AE3100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,9 +1041,6 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
       <c r="E8">
         <v>2</v>
       </c>
@@ -1057,7 +1054,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="13"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EB2A1-82EC-40C6-80E0-FA4647AE3100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71019275-E1AA-436A-9BBF-DC25DD1EE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,8 +1045,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="11"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rksud\Documents\Git\excel-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71019275-E1AA-436A-9BBF-DC25DD1EE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5FC518-AB29-466C-A5F3-268D23DFBF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5700" windowWidth="19785" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="8">
   <si>
     <t>edit1</t>
   </si>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D7D2A1-2752-48D3-A2CC-34ACE2B8568A}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,8 +476,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,8 +1011,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="11"/>
@@ -1081,8 +1080,7 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="11"/>
